--- a/thursday/Variant_Counts.xlsx
+++ b/thursday/Variant_Counts.xlsx
@@ -60,9 +60,6 @@
     <t>grep -v "^#" &lt;file&gt; | wc -l</t>
   </si>
   <si>
-    <t>snpSift isVariant(GEN[0]) &amp; isHom(GEN[0]) &amp; FILTER='PASS'</t>
-  </si>
-  <si>
     <t>Variants that PASSed and were homozygous in the first sample (sample 0)</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>To find the homoygous variant in the first sample that had the reference base n all other samples</t>
+  </si>
+  <si>
+    <t>SnpSift.jar filter "isVariant(GEN[0]) &amp; isHom(GEN[0]) &amp; FILTER='PASS'" | grep -v "^#"</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>756</v>
@@ -579,17 +579,17 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="D6" s="6">
         <f>C6/C$4</f>
-        <v>3.1683539557555304E-2</v>
+        <v>2.4371953505811773E-2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>1.8747656542932134E-4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -643,7 +643,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -667,10 +667,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
       </c>
       <c r="C12">
         <v>383712</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>288707</v>
@@ -697,10 +697,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>437556</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>1403</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -789,12 +789,12 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>429112</v>
@@ -804,7 +804,7 @@
         <v>0.92393420032727591</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
